--- a/random/Data manipulation.xlsx
+++ b/random/Data manipulation.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\PycharmProjects\ramdon code\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA5E5A-E8D8-4A97-8DA9-E8DD68245619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D166ED00-8A56-4EB9-B6E8-D7B27648C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>No2</t>
+  </si>
+  <si>
+    <t>collatz_return_n</t>
   </si>
 </sst>
 </file>
@@ -43,11 +44,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,12 +58,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -72,13 +87,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -101,44 +118,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -165,15 +182,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -200,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -212,664 +227,3008 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>91</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>94</v>
+      </c>
+      <c r="D32">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>103</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>109</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>112</v>
+      </c>
+      <c r="D38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>121</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>124</v>
+      </c>
+      <c r="D42">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>127</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>130</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>133</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>136</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>139</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>142</v>
+      </c>
+      <c r="D48">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>145</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>148</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>151</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>154</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>160</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>163</v>
+      </c>
+      <c r="D55">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>166</v>
+      </c>
+      <c r="D56">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>169</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>172</v>
+      </c>
+      <c r="D58">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>178</v>
+      </c>
+      <c r="D60">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>181</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>184</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>187</v>
+      </c>
+      <c r="D63">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>190</v>
+      </c>
+      <c r="D64">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>193</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>196</v>
+      </c>
+      <c r="D66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>199</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>202</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>205</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>208</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>211</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>214</v>
+      </c>
+      <c r="D72">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>217</v>
+      </c>
+      <c r="D73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>220</v>
+      </c>
+      <c r="D74">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>223</v>
+      </c>
+      <c r="D75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>226</v>
+      </c>
+      <c r="D76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>229</v>
+      </c>
+      <c r="D77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>232</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>235</v>
+      </c>
+      <c r="D79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>238</v>
+      </c>
+      <c r="D80">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>241</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>244</v>
+      </c>
+      <c r="D82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>247</v>
+      </c>
+      <c r="D83">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>250</v>
+      </c>
+      <c r="D84">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>253</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>256</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>259</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>262</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>265</v>
+      </c>
+      <c r="D89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>268</v>
+      </c>
+      <c r="D90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>271</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>274</v>
+      </c>
+      <c r="D92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>277</v>
+      </c>
+      <c r="D93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>280</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>283</v>
+      </c>
+      <c r="D95">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>286</v>
+      </c>
+      <c r="D96">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>289</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>292</v>
+      </c>
+      <c r="D98">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>295</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>298</v>
+      </c>
+      <c r="D100">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
         <v>100</v>
       </c>
+      <c r="C101">
+        <v>301</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>304</v>
+      </c>
+      <c r="D102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>307</v>
+      </c>
+      <c r="D103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>310</v>
+      </c>
+      <c r="D104">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>313</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>316</v>
+      </c>
+      <c r="D106">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>319</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>322</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>325</v>
+      </c>
+      <c r="D109">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>328</v>
+      </c>
+      <c r="D110">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>331</v>
+      </c>
+      <c r="D111">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>334</v>
+      </c>
+      <c r="D112">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>337</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>340</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>343</v>
+      </c>
+      <c r="D115">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>346</v>
+      </c>
+      <c r="D116">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>349</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>352</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>355</v>
+      </c>
+      <c r="D119">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>358</v>
+      </c>
+      <c r="D120">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>361</v>
+      </c>
+      <c r="D121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>364</v>
+      </c>
+      <c r="D122">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>367</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>370</v>
+      </c>
+      <c r="D124">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>373</v>
+      </c>
+      <c r="D125">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>376</v>
+      </c>
+      <c r="D126">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>379</v>
+      </c>
+      <c r="D127">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>382</v>
+      </c>
+      <c r="D128">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>385</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>388</v>
+      </c>
+      <c r="D130">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <v>391</v>
+      </c>
+      <c r="D131">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>394</v>
+      </c>
+      <c r="D132">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>397</v>
+      </c>
+      <c r="D133">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>400</v>
+      </c>
+      <c r="D134">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>403</v>
+      </c>
+      <c r="D135">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <v>406</v>
+      </c>
+      <c r="D136">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>409</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>412</v>
+      </c>
+      <c r="D138">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>415</v>
+      </c>
+      <c r="D139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>418</v>
+      </c>
+      <c r="D140">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <v>421</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>424</v>
+      </c>
+      <c r="D142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>427</v>
+      </c>
+      <c r="D143">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>430</v>
+      </c>
+      <c r="D144">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>433</v>
+      </c>
+      <c r="D145">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <v>436</v>
+      </c>
+      <c r="D146">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>439</v>
+      </c>
+      <c r="D147">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>442</v>
+      </c>
+      <c r="D148">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>445</v>
+      </c>
+      <c r="D149">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>448</v>
+      </c>
+      <c r="D150">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <v>451</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>454</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <v>457</v>
+      </c>
+      <c r="D153">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <v>460</v>
+      </c>
+      <c r="D154">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <v>463</v>
+      </c>
+      <c r="D155">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <v>466</v>
+      </c>
+      <c r="D156">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>469</v>
+      </c>
+      <c r="D157">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>472</v>
+      </c>
+      <c r="D158">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>475</v>
+      </c>
+      <c r="D159">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>478</v>
+      </c>
+      <c r="D160">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>481</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>484</v>
+      </c>
+      <c r="D162">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>487</v>
+      </c>
+      <c r="D163">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>490</v>
+      </c>
+      <c r="D164">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>493</v>
+      </c>
+      <c r="D165">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>496</v>
+      </c>
+      <c r="D166">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>499</v>
+      </c>
+      <c r="D167">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>502</v>
+      </c>
+      <c r="D168">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>505</v>
+      </c>
+      <c r="D169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>508</v>
+      </c>
+      <c r="D170">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>511</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>514</v>
+      </c>
+      <c r="D172">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>517</v>
+      </c>
+      <c r="D173">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>520</v>
+      </c>
+      <c r="D174">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>523</v>
+      </c>
+      <c r="D175">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>526</v>
+      </c>
+      <c r="D176">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <v>529</v>
+      </c>
+      <c r="D177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <v>532</v>
+      </c>
+      <c r="D178">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <v>535</v>
+      </c>
+      <c r="D179">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <v>538</v>
+      </c>
+      <c r="D180">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <v>541</v>
+      </c>
+      <c r="D181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <v>544</v>
+      </c>
+      <c r="D182">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>547</v>
+      </c>
+      <c r="D183">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <v>550</v>
+      </c>
+      <c r="D184">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <v>553</v>
+      </c>
+      <c r="D185">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <v>556</v>
+      </c>
+      <c r="D186">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <v>559</v>
+      </c>
+      <c r="D187">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <v>562</v>
+      </c>
+      <c r="D188">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <v>565</v>
+      </c>
+      <c r="D189">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <v>568</v>
+      </c>
+      <c r="D190">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>571</v>
+      </c>
+      <c r="D191">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <v>574</v>
+      </c>
+      <c r="D192">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <v>577</v>
+      </c>
+      <c r="D193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <v>580</v>
+      </c>
+      <c r="D194">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <v>583</v>
+      </c>
+      <c r="D195">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <v>586</v>
+      </c>
+      <c r="D196">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <v>589</v>
+      </c>
+      <c r="D197">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <v>592</v>
+      </c>
+      <c r="D198">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <v>595</v>
+      </c>
+      <c r="D199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <v>598</v>
+      </c>
+      <c r="D200">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <v>601</v>
+      </c>
+      <c r="D201">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>604</v>
+      </c>
+      <c r="D202">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/random/Data manipulation.xlsx
+++ b/random/Data manipulation.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\PycharmProjects\ramdon code\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D166ED00-8A56-4EB9-B6E8-D7B27648C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFADC97-7656-4D8B-AA20-FA99F4CA8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -29,6 +30,24 @@
   </si>
   <si>
     <t>collatz_return_n</t>
+  </si>
+  <si>
+    <t>% Gross Sale</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good </t>
+  </si>
+  <si>
+    <t>Barely catchup</t>
+  </si>
+  <si>
+    <t>seem fine</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
 </sst>
 </file>
@@ -85,11 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,4 +3251,111 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F5DC6-0875-4888-8661-F1A13E435A89}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-0.75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/random/Data manipulation.xlsx
+++ b/random/Data manipulation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\PycharmProjects\ramdon code\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFADC97-7656-4D8B-AA20-FA99F4CA8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70664B50-B4E3-4F70-BBE1-812013FAADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Company Note" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3258,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
